--- a/data/data3.xlsx
+++ b/data/data3.xlsx
@@ -1412,7 +1412,7 @@
         <v>0.6</v>
       </c>
       <c r="F5" s="3">
-        <v>0.9</v>
+        <v>0.3</v>
       </c>
       <c r="G5" s="3">
         <v>0.1</v>
